--- a/Consolidados/tabla_013_migra_Consolidado.xlsx
+++ b/Consolidados/tabla_013_migra_Consolidado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\tabla_013_migra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\Consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DC9CCEB0-5954-401A-837E-9023569A8B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20484FF8-7762-4E75-BCB4-A221042C9464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_013_migra_2011" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="209">
-  <si>
-    <t>unlist.b.</t>
-  </si>
-  <si>
-    <t>unlist.c.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="208">
   <si>
     <t>Freq</t>
   </si>
@@ -637,9 +631,6 @@
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>No Responde</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
@@ -647,12 +638,18 @@
   </si>
   <si>
     <t>Vitacura</t>
+  </si>
+  <si>
+    <t>Razón</t>
+  </si>
+  <si>
+    <t>País</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,16 +1188,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G270" totalsRowShown="0">
-  <autoFilter ref="A1:G270"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G270" totalsRowShown="0">
+  <autoFilter ref="A1:G270" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Comuna"/>
-    <tableColumn id="2" name="unlist.b."/>
-    <tableColumn id="3" name="unlist.c."/>
-    <tableColumn id="4" name="Sexo"/>
-    <tableColumn id="5" name="Freq"/>
-    <tableColumn id="6" name="Año"/>
-    <tableColumn id="7" name="Cod_Comuna"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comuna"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Razón"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="País"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sexo"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Freq"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cod_Comuna"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1502,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G270"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,39 +1513,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1562,16 +1559,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -1585,16 +1582,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -1608,16 +1605,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -1631,16 +1628,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>75</v>
@@ -1654,16 +1651,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1677,16 +1674,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>16</v>
@@ -1700,16 +1697,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>44</v>
@@ -1723,16 +1720,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1746,16 +1743,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>41</v>
@@ -1769,16 +1766,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1792,16 +1789,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>22</v>
@@ -1815,16 +1812,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1838,16 +1835,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1861,16 +1858,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>88</v>
@@ -1884,16 +1881,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>26</v>
@@ -1907,16 +1904,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>68</v>
@@ -1930,16 +1927,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1953,16 +1950,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -1976,16 +1973,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>21</v>
@@ -1999,16 +1996,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
       </c>
       <c r="E22">
         <v>74</v>
@@ -2022,16 +2019,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>32</v>
@@ -2045,16 +2042,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>18</v>
@@ -2068,16 +2065,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>38</v>
@@ -2091,16 +2088,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>57</v>
@@ -2114,16 +2111,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2137,16 +2134,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2160,16 +2157,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -2183,16 +2180,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -2206,16 +2203,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>45</v>
@@ -2229,16 +2226,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>16</v>
@@ -2252,16 +2249,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>62</v>
@@ -2275,16 +2272,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2298,16 +2295,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>11</v>
@@ -2321,16 +2318,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>32</v>
@@ -2344,16 +2341,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>17</v>
@@ -2367,16 +2364,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>16</v>
@@ -2390,16 +2387,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>189</v>
@@ -2413,16 +2410,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -2436,16 +2433,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>88</v>
@@ -2459,16 +2456,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>53</v>
@@ -2482,16 +2479,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>17</v>
@@ -2505,16 +2502,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>102</v>
@@ -2528,16 +2525,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>244</v>
@@ -2551,16 +2548,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>268</v>
@@ -2574,16 +2571,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>26</v>
@@ -2597,16 +2594,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>219</v>
@@ -2620,16 +2617,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>166</v>
@@ -2643,16 +2640,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>19</v>
@@ -2666,16 +2663,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E51">
         <v>56</v>
@@ -2689,16 +2686,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>59</v>
@@ -2712,16 +2709,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>14</v>
@@ -2735,16 +2732,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>56</v>
@@ -2758,16 +2755,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>42</v>
@@ -2781,16 +2778,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>84</v>
@@ -2804,16 +2801,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>71</v>
@@ -2827,16 +2824,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -2850,16 +2847,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>13</v>
@@ -2873,16 +2870,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <v>11</v>
@@ -2896,16 +2893,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>114</v>
@@ -2919,16 +2916,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <v>158</v>
@@ -2942,16 +2939,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>67</v>
@@ -2965,16 +2962,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>37</v>
@@ -2988,16 +2985,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>39</v>
@@ -3011,16 +3008,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>108</v>
@@ -3034,16 +3031,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E67">
         <v>111</v>
@@ -3057,16 +3054,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>131</v>
@@ -3080,16 +3077,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <v>208</v>
@@ -3103,16 +3100,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -3126,16 +3123,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>47</v>
@@ -3149,16 +3146,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E72">
         <v>58</v>
@@ -3172,16 +3169,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E73">
         <v>37</v>
@@ -3195,16 +3192,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E74">
         <v>37</v>
@@ -3218,16 +3215,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>72</v>
@@ -3241,16 +3238,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>47</v>
@@ -3264,16 +3261,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>93</v>
@@ -3287,16 +3284,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>90</v>
@@ -3310,16 +3307,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -3333,16 +3330,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
         <v>3</v>
       </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>28</v>
@@ -3356,16 +3353,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
         <v>3</v>
       </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>33</v>
@@ -3379,16 +3376,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>30</v>
@@ -3402,16 +3399,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>67</v>
@@ -3425,16 +3422,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="B84" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E84">
         <v>24</v>
@@ -3448,16 +3445,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>56</v>
@@ -3471,16 +3468,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
         <v>13</v>
       </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>45</v>
@@ -3494,16 +3491,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
         <v>13</v>
       </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>12</v>
@@ -3517,16 +3514,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
         <v>13</v>
       </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>104</v>
@@ -3540,16 +3537,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>29</v>
@@ -3563,16 +3560,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E90">
         <v>13</v>
@@ -3586,16 +3583,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>15</v>
@@ -3609,16 +3606,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E92">
         <v>12</v>
@@ -3632,16 +3629,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>484</v>
@@ -3655,16 +3652,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>40</v>
@@ -3678,16 +3675,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>60</v>
@@ -3701,16 +3698,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <v>28</v>
@@ -3724,16 +3721,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E97">
         <v>477</v>
@@ -3747,16 +3744,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <v>32</v>
@@ -3770,16 +3767,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>90</v>
@@ -3793,16 +3790,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <v>37</v>
@@ -3816,16 +3813,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>37</v>
@@ -3839,16 +3836,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E102">
         <v>90</v>
@@ -3862,16 +3859,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E103">
         <v>30</v>
@@ -3885,16 +3882,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E104">
         <v>51</v>
@@ -3908,16 +3905,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E105">
         <v>21</v>
@@ -3931,16 +3928,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <v>17</v>
@@ -3954,16 +3951,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <v>83</v>
@@ -3977,16 +3974,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E108">
         <v>187</v>
@@ -4000,16 +3997,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>294</v>
@@ -4023,16 +4020,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E110">
         <v>58</v>
@@ -4046,16 +4043,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <v>370</v>
@@ -4069,16 +4066,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <v>182</v>
@@ -4092,16 +4089,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E113">
         <v>136</v>
@@ -4115,16 +4112,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>153</v>
@@ -4138,16 +4135,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>69</v>
@@ -4161,16 +4158,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <v>53</v>
@@ -4184,16 +4181,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E117">
         <v>53</v>
@@ -4207,16 +4204,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E118">
         <v>207</v>
@@ -4230,16 +4227,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E119">
         <v>358</v>
@@ -4253,16 +4250,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <v>15</v>
@@ -4276,16 +4273,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C121" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E121">
         <v>15</v>
@@ -4299,16 +4296,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <v>68</v>
@@ -4322,16 +4319,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E123">
         <v>88</v>
@@ -4345,16 +4342,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>257</v>
@@ -4368,16 +4365,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E125">
         <v>25</v>
@@ -4391,16 +4388,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E126">
         <v>15</v>
@@ -4414,16 +4411,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E127">
         <v>77</v>
@@ -4437,16 +4434,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E128">
         <v>398</v>
@@ -4460,16 +4457,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E129">
         <v>167</v>
@@ -4483,16 +4480,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>167</v>
@@ -4506,16 +4503,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E131">
         <v>271</v>
@@ -4529,16 +4526,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E132">
         <v>44</v>
@@ -4552,16 +4549,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E133">
         <v>139</v>
@@ -4575,16 +4572,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E134">
         <v>126</v>
@@ -4598,16 +4595,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E135">
         <v>191</v>
@@ -4621,16 +4618,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E136">
         <v>99</v>
@@ -4644,16 +4641,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E137">
         <v>52</v>
@@ -4667,16 +4664,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E138">
         <v>44</v>
@@ -4690,16 +4687,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E139">
         <v>90</v>
@@ -4713,16 +4710,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E140">
         <v>81</v>
@@ -4736,16 +4733,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E141">
         <v>42</v>
@@ -4759,16 +4756,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E142">
         <v>42</v>
@@ -4782,16 +4779,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E143">
         <v>81</v>
@@ -4805,16 +4802,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E144">
         <v>21</v>
@@ -4828,16 +4825,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>29</v>
@@ -4851,16 +4848,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E146">
         <v>216</v>
@@ -4874,16 +4871,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
         <v>13</v>
       </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E147">
         <v>163</v>
@@ -4897,16 +4894,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E148">
         <v>74</v>
@@ -4920,16 +4917,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E149">
         <v>15</v>
@@ -4943,16 +4940,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
         <v>13</v>
       </c>
-      <c r="B150" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E150">
         <v>73</v>
@@ -4966,16 +4963,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E151">
         <v>16</v>
@@ -4989,16 +4986,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E152">
         <v>123</v>
@@ -5012,16 +5009,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E153">
         <v>46</v>
@@ -5035,16 +5032,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -5058,16 +5055,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>121</v>
+      </c>
+      <c r="B155" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" t="s">
         <v>123</v>
       </c>
-      <c r="B155" t="s">
-        <v>124</v>
-      </c>
-      <c r="C155" t="s">
-        <v>125</v>
-      </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E155">
         <v>39</v>
@@ -5081,16 +5078,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E156">
         <v>23</v>
@@ -5104,16 +5101,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D157" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E157">
         <v>19</v>
@@ -5127,16 +5124,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E158">
         <v>12</v>
@@ -5150,16 +5147,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E159">
         <v>71</v>
@@ -5173,16 +5170,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>71</v>
@@ -5196,16 +5193,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E161">
         <v>88</v>
@@ -5219,16 +5216,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E162">
         <v>20</v>
@@ -5242,16 +5239,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D163" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E163">
         <v>67</v>
@@ -5265,16 +5262,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E164">
         <v>55</v>
@@ -5288,16 +5285,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D165" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E165">
         <v>77</v>
@@ -5311,16 +5308,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E166">
         <v>129</v>
@@ -5334,16 +5331,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E167">
         <v>52</v>
@@ -5357,16 +5354,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E168">
         <v>39</v>
@@ -5380,16 +5377,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E169">
         <v>100</v>
@@ -5403,16 +5400,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E170">
         <v>70</v>
@@ -5426,16 +5423,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B171" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C171" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D171" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E171">
         <v>71</v>
@@ -5449,16 +5446,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C172" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <v>80</v>
@@ -5472,16 +5469,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E173">
         <v>73</v>
@@ -5495,16 +5492,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B174" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E174">
         <v>43</v>
@@ -5518,16 +5515,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E175">
         <v>62</v>
@@ -5541,16 +5538,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B176" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E176">
         <v>47</v>
@@ -5564,16 +5561,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B177" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C177" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D177" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E177">
         <v>39</v>
@@ -5587,16 +5584,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E178">
         <v>28</v>
@@ -5610,16 +5607,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E179">
         <v>131</v>
@@ -5633,16 +5630,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C180" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E180">
         <v>232</v>
@@ -5656,16 +5653,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B181" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E181">
         <v>51</v>
@@ -5679,16 +5676,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -5702,16 +5699,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E183">
         <v>35</v>
@@ -5725,16 +5722,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E184">
         <v>128</v>
@@ -5748,16 +5745,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E185">
         <v>79</v>
@@ -5771,16 +5768,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E186">
         <v>24</v>
@@ -5794,16 +5791,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E187">
         <v>63</v>
@@ -5817,16 +5814,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E188">
         <v>36</v>
@@ -5840,16 +5837,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D189" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E189">
         <v>37</v>
@@ -5863,16 +5860,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E190">
         <v>40</v>
@@ -5886,16 +5883,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E191">
         <v>40</v>
@@ -5909,16 +5906,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E192">
         <v>30</v>
@@ -5932,16 +5929,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D193" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E193">
         <v>73</v>
@@ -5955,16 +5952,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>135</v>
+      </c>
+      <c r="B194" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" t="s">
         <v>137</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>138</v>
-      </c>
-      <c r="C194" t="s">
-        <v>139</v>
-      </c>
-      <c r="D194" t="s">
-        <v>140</v>
       </c>
       <c r="E194">
         <v>16</v>
@@ -5978,16 +5975,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>139</v>
+      </c>
+      <c r="B195" t="s">
+        <v>140</v>
+      </c>
+      <c r="C195" t="s">
         <v>141</v>
       </c>
-      <c r="B195" t="s">
-        <v>142</v>
-      </c>
-      <c r="C195" t="s">
-        <v>143</v>
-      </c>
       <c r="D195" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E195">
         <v>51</v>
@@ -6001,16 +5998,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B196" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C196" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D196" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E196">
         <v>29</v>
@@ -6024,16 +6021,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B197" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C197" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D197" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E197">
         <v>42</v>
@@ -6047,16 +6044,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B198" t="s">
+        <v>136</v>
+      </c>
+      <c r="C198" t="s">
+        <v>143</v>
+      </c>
+      <c r="D198" t="s">
         <v>138</v>
-      </c>
-      <c r="C198" t="s">
-        <v>145</v>
-      </c>
-      <c r="D198" t="s">
-        <v>140</v>
       </c>
       <c r="E198">
         <v>28</v>
@@ -6070,16 +6067,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B199" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C199" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D199" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E199">
         <v>86</v>
@@ -6093,16 +6090,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B200" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C200" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D200" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E200">
         <v>52</v>
@@ -6116,16 +6113,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B201" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" t="s">
+        <v>141</v>
+      </c>
+      <c r="D201" t="s">
         <v>138</v>
-      </c>
-      <c r="C201" t="s">
-        <v>143</v>
-      </c>
-      <c r="D201" t="s">
-        <v>140</v>
       </c>
       <c r="E201">
         <v>66</v>
@@ -6139,16 +6136,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B202" t="s">
+        <v>136</v>
+      </c>
+      <c r="C202" t="s">
+        <v>137</v>
+      </c>
+      <c r="D202" t="s">
         <v>138</v>
-      </c>
-      <c r="C202" t="s">
-        <v>139</v>
-      </c>
-      <c r="D202" t="s">
-        <v>140</v>
       </c>
       <c r="E202">
         <v>140</v>
@@ -6162,16 +6159,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>146</v>
+      </c>
+      <c r="B203" t="s">
+        <v>147</v>
+      </c>
+      <c r="C203" t="s">
         <v>148</v>
       </c>
-      <c r="B203" t="s">
-        <v>149</v>
-      </c>
-      <c r="C203" t="s">
-        <v>150</v>
-      </c>
       <c r="D203" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E203">
         <v>79</v>
@@ -6185,16 +6182,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B204" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C204" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D204" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E204">
         <v>16</v>
@@ -6208,16 +6205,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B205" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C205" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D205" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E205">
         <v>26</v>
@@ -6231,16 +6228,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>149</v>
+      </c>
+      <c r="B206" t="s">
         <v>151</v>
       </c>
-      <c r="B206" t="s">
-        <v>153</v>
-      </c>
       <c r="C206" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D206" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E206">
         <v>9</v>
@@ -6254,16 +6251,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B207" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C207" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D207" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E207">
         <v>33</v>
@@ -6277,16 +6274,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B208" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C208" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D208" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E208">
         <v>96</v>
@@ -6300,16 +6297,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B209" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C209" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D209" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E209">
         <v>17</v>
@@ -6323,16 +6320,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B210" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C210" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D210" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E210">
         <v>29</v>
@@ -6346,16 +6343,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B211" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C211" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D211" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E211">
         <v>17</v>
@@ -6369,16 +6366,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>153</v>
+      </c>
+      <c r="B212" t="s">
+        <v>154</v>
+      </c>
+      <c r="C212" t="s">
         <v>155</v>
       </c>
-      <c r="B212" t="s">
-        <v>156</v>
-      </c>
-      <c r="C212" t="s">
-        <v>157</v>
-      </c>
       <c r="D212" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E212">
         <v>46</v>
@@ -6392,16 +6389,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C213" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D213" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E213">
         <v>227</v>
@@ -6415,16 +6412,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B214" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C214" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D214" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E214">
         <v>100</v>
@@ -6438,16 +6435,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B215" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C215" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D215" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E215">
         <v>174</v>
@@ -6461,16 +6458,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B216" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C216" t="s">
+        <v>148</v>
+      </c>
+      <c r="D216" t="s">
         <v>150</v>
-      </c>
-      <c r="D216" t="s">
-        <v>152</v>
       </c>
       <c r="E216">
         <v>37</v>
@@ -6484,16 +6481,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B217" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C217" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D217" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E217">
         <v>100</v>
@@ -6507,16 +6504,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B218" t="s">
+        <v>136</v>
+      </c>
+      <c r="C218" t="s">
+        <v>162</v>
+      </c>
+      <c r="D218" t="s">
         <v>138</v>
-      </c>
-      <c r="C218" t="s">
-        <v>164</v>
-      </c>
-      <c r="D218" t="s">
-        <v>140</v>
       </c>
       <c r="E218">
         <v>114</v>
@@ -6530,16 +6527,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B219" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C219" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D219" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E219">
         <v>52</v>
@@ -6553,16 +6550,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B220" t="s">
+        <v>136</v>
+      </c>
+      <c r="C220" t="s">
+        <v>137</v>
+      </c>
+      <c r="D220" t="s">
         <v>138</v>
-      </c>
-      <c r="C220" t="s">
-        <v>139</v>
-      </c>
-      <c r="D220" t="s">
-        <v>140</v>
       </c>
       <c r="E220">
         <v>42</v>
@@ -6576,16 +6573,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B221" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C221" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D221" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E221">
         <v>21</v>
@@ -6599,16 +6596,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B222" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C222" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D222" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E222">
         <v>49</v>
@@ -6622,16 +6619,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>165</v>
+      </c>
+      <c r="B223" t="s">
         <v>167</v>
       </c>
-      <c r="B223" t="s">
-        <v>169</v>
-      </c>
       <c r="C223" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D223" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E223">
         <v>11</v>
@@ -6645,16 +6642,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B224" t="s">
+        <v>136</v>
+      </c>
+      <c r="C224" t="s">
+        <v>137</v>
+      </c>
+      <c r="D224" t="s">
         <v>138</v>
-      </c>
-      <c r="C224" t="s">
-        <v>139</v>
-      </c>
-      <c r="D224" t="s">
-        <v>140</v>
       </c>
       <c r="E224">
         <v>26</v>
@@ -6668,16 +6665,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B225" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C225" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D225" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E225">
         <v>20</v>
@@ -6691,16 +6688,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B226" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C226" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D226" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E226">
         <v>40</v>
@@ -6714,16 +6711,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B227" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C227" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D227" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E227">
         <v>58</v>
@@ -6737,16 +6734,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B228" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C228" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D228" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E228">
         <v>20</v>
@@ -6760,16 +6757,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B229" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C229" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D229" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E229">
         <v>149</v>
@@ -6783,16 +6780,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B230" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C230" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D230" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E230">
         <v>111</v>
@@ -6806,16 +6803,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B231" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C231" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D231" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E231">
         <v>153</v>
@@ -6829,16 +6826,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B232" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C232" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D232" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E232">
         <v>72</v>
@@ -6852,16 +6849,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B233" t="s">
+        <v>136</v>
+      </c>
+      <c r="C233" t="s">
+        <v>148</v>
+      </c>
+      <c r="D233" t="s">
         <v>138</v>
-      </c>
-      <c r="C233" t="s">
-        <v>150</v>
-      </c>
-      <c r="D233" t="s">
-        <v>140</v>
       </c>
       <c r="E233">
         <v>135</v>
@@ -6875,16 +6872,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B234" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C234" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D234" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E234">
         <v>103</v>
@@ -6898,16 +6895,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B235" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C235" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D235" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E235">
         <v>66</v>
@@ -6921,16 +6918,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B236" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C236" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D236" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E236">
         <v>235</v>
@@ -6944,16 +6941,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B237" t="s">
+        <v>136</v>
+      </c>
+      <c r="C237" t="s">
+        <v>141</v>
+      </c>
+      <c r="D237" t="s">
         <v>138</v>
-      </c>
-      <c r="C237" t="s">
-        <v>143</v>
-      </c>
-      <c r="D237" t="s">
-        <v>140</v>
       </c>
       <c r="E237">
         <v>85</v>
@@ -6967,16 +6964,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B238" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C238" t="s">
+        <v>148</v>
+      </c>
+      <c r="D238" t="s">
         <v>150</v>
-      </c>
-      <c r="D238" t="s">
-        <v>152</v>
       </c>
       <c r="E238">
         <v>22</v>
@@ -6990,16 +6987,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B239" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C239" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D239" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E239">
         <v>15</v>
@@ -7013,16 +7010,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>177</v>
+      </c>
+      <c r="B240" t="s">
+        <v>168</v>
+      </c>
+      <c r="C240" t="s">
         <v>179</v>
       </c>
-      <c r="B240" t="s">
-        <v>170</v>
-      </c>
-      <c r="C240" t="s">
-        <v>181</v>
-      </c>
       <c r="D240" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E240">
         <v>124</v>
@@ -7036,16 +7033,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>177</v>
+      </c>
+      <c r="B241" t="s">
+        <v>152</v>
+      </c>
+      <c r="C241" t="s">
         <v>179</v>
       </c>
-      <c r="B241" t="s">
-        <v>154</v>
-      </c>
-      <c r="C241" t="s">
-        <v>181</v>
-      </c>
       <c r="D241" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E241">
         <v>124</v>
@@ -7059,16 +7056,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B242" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C242" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D242" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E242">
         <v>172</v>
@@ -7082,16 +7079,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B243" t="s">
+        <v>136</v>
+      </c>
+      <c r="C243" t="s">
+        <v>141</v>
+      </c>
+      <c r="D243" t="s">
         <v>138</v>
-      </c>
-      <c r="C243" t="s">
-        <v>143</v>
-      </c>
-      <c r="D243" t="s">
-        <v>140</v>
       </c>
       <c r="E243">
         <v>149</v>
@@ -7105,16 +7102,16 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B244" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C244" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D244" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E244">
         <v>41</v>
@@ -7128,16 +7125,16 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B245" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C245" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D245" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E245">
         <v>14</v>
@@ -7151,16 +7148,16 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B246" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C246" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D246" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E246">
         <v>80</v>
@@ -7174,16 +7171,16 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B247" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C247" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D247" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E247">
         <v>38</v>
@@ -7197,16 +7194,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B248" t="s">
+        <v>136</v>
+      </c>
+      <c r="C248" t="s">
+        <v>143</v>
+      </c>
+      <c r="D248" t="s">
         <v>138</v>
-      </c>
-      <c r="C248" t="s">
-        <v>145</v>
-      </c>
-      <c r="D248" t="s">
-        <v>140</v>
       </c>
       <c r="E248">
         <v>53</v>
@@ -7220,16 +7217,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B249" t="s">
+        <v>136</v>
+      </c>
+      <c r="C249" t="s">
+        <v>137</v>
+      </c>
+      <c r="D249" t="s">
         <v>138</v>
-      </c>
-      <c r="C249" t="s">
-        <v>139</v>
-      </c>
-      <c r="D249" t="s">
-        <v>140</v>
       </c>
       <c r="E249">
         <v>71</v>
@@ -7243,16 +7240,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B250" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" t="s">
+        <v>190</v>
+      </c>
+      <c r="D250" t="s">
         <v>138</v>
-      </c>
-      <c r="C250" t="s">
-        <v>192</v>
-      </c>
-      <c r="D250" t="s">
-        <v>140</v>
       </c>
       <c r="E250">
         <v>285</v>
@@ -7266,16 +7263,16 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B251" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C251" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D251" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E251">
         <v>892</v>
@@ -7289,16 +7286,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B252" t="s">
+        <v>136</v>
+      </c>
+      <c r="C252" t="s">
+        <v>192</v>
+      </c>
+      <c r="D252" t="s">
         <v>138</v>
-      </c>
-      <c r="C252" t="s">
-        <v>194</v>
-      </c>
-      <c r="D252" t="s">
-        <v>140</v>
       </c>
       <c r="E252">
         <v>16</v>
@@ -7312,16 +7309,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B253" t="s">
+        <v>136</v>
+      </c>
+      <c r="C253" t="s">
+        <v>137</v>
+      </c>
+      <c r="D253" t="s">
         <v>138</v>
-      </c>
-      <c r="C253" t="s">
-        <v>139</v>
-      </c>
-      <c r="D253" t="s">
-        <v>140</v>
       </c>
       <c r="E253">
         <v>298</v>
@@ -7335,16 +7332,16 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B254" t="s">
+        <v>136</v>
+      </c>
+      <c r="C254" t="s">
+        <v>181</v>
+      </c>
+      <c r="D254" t="s">
         <v>138</v>
-      </c>
-      <c r="C254" t="s">
-        <v>183</v>
-      </c>
-      <c r="D254" t="s">
-        <v>140</v>
       </c>
       <c r="E254">
         <v>881</v>
@@ -7358,16 +7355,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B255" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C255" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D255" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E255">
         <v>216</v>
@@ -7381,16 +7378,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B256" t="s">
+        <v>136</v>
+      </c>
+      <c r="C256" t="s">
+        <v>137</v>
+      </c>
+      <c r="D256" t="s">
         <v>138</v>
-      </c>
-      <c r="C256" t="s">
-        <v>139</v>
-      </c>
-      <c r="D256" t="s">
-        <v>140</v>
       </c>
       <c r="E256">
         <v>216</v>
@@ -7404,16 +7401,16 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B257" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C257" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D257" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E257">
         <v>63</v>
@@ -7427,16 +7424,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B258" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C258" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D258" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E258">
         <v>63</v>
@@ -7450,16 +7447,16 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B259" t="s">
+        <v>136</v>
+      </c>
+      <c r="C259" t="s">
+        <v>137</v>
+      </c>
+      <c r="D259" t="s">
         <v>138</v>
-      </c>
-      <c r="C259" t="s">
-        <v>139</v>
-      </c>
-      <c r="D259" t="s">
-        <v>140</v>
       </c>
       <c r="E259">
         <v>146</v>
@@ -7473,16 +7470,16 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B260" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C260" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D260" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E260">
         <v>146</v>
@@ -7496,16 +7493,16 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B261" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C261" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D261" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E261">
         <v>63</v>
@@ -7519,16 +7516,16 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B262" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C262" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D262" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E262">
         <v>104</v>
@@ -7542,16 +7539,16 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B263" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C263" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D263" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E263">
         <v>15</v>
@@ -7565,16 +7562,16 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B264" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C264" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="D264" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E264">
         <v>49</v>
@@ -7588,16 +7585,16 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B265" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C265" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="D265" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E265">
         <v>49</v>
@@ -7611,16 +7608,16 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B266" t="s">
+        <v>136</v>
+      </c>
+      <c r="C266" t="s">
+        <v>171</v>
+      </c>
+      <c r="D266" t="s">
         <v>138</v>
-      </c>
-      <c r="C266" t="s">
-        <v>173</v>
-      </c>
-      <c r="D266" t="s">
-        <v>140</v>
       </c>
       <c r="E266">
         <v>25</v>
@@ -7634,16 +7631,16 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B267" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C267" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D267" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E267">
         <v>22</v>
@@ -7657,16 +7654,16 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B268" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C268" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D268" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E268">
         <v>25</v>
@@ -7680,16 +7677,16 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B269" t="s">
+        <v>136</v>
+      </c>
+      <c r="C269" t="s">
+        <v>171</v>
+      </c>
+      <c r="D269" t="s">
         <v>138</v>
-      </c>
-      <c r="C269" t="s">
-        <v>173</v>
-      </c>
-      <c r="D269" t="s">
-        <v>140</v>
       </c>
       <c r="E269">
         <v>107</v>
@@ -7703,16 +7700,16 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B270" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C270" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D270" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E270">
         <v>34</v>
